--- a/src/test/resources/contactInformationForUKLogin.xlsx
+++ b/src/test/resources/contactInformationForUKLogin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>Sergei</t>
   </si>
@@ -114,12 +114,6 @@
     <t>Entry</t>
   </si>
   <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>NameTest</t>
   </si>
   <si>
@@ -127,13 +121,15 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>dnc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -466,199 +462,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="1" max="1" width="15.875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="14.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>224</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2">
+        <v>691</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2">
+        <v>10</v>
+      </c>
+      <c r="R2">
+        <v>2020</v>
+      </c>
+      <c r="S2">
+        <v>123</v>
+      </c>
+      <c r="T2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>224</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
         <v>3</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K3" t="s">
         <v>4</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L3" t="s">
         <v>5</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M3" t="s">
         <v>6</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N3" t="s">
         <v>21</v>
       </c>
-      <c r="N2">
+      <c r="O3">
         <v>691</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P3" t="s">
         <v>24</v>
       </c>
-      <c r="P2">
+      <c r="Q3">
         <v>10</v>
       </c>
-      <c r="Q2">
+      <c r="R3">
         <v>2020</v>
       </c>
-      <c r="R2">
+      <c r="S3">
         <v>123</v>
       </c>
-      <c r="S2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3">
-        <v>224</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3">
-        <v>691</v>
-      </c>
-      <c r="O3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3">
-        <v>10</v>
-      </c>
-      <c r="Q3">
-        <v>2020</v>
-      </c>
-      <c r="R3">
-        <v>123</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>29</v>
       </c>
     </row>
